--- a/crm/data/physicalAreas/areasfisicas-duplicados.xlsx
+++ b/crm/data/physicalAreas/areasfisicas-duplicados.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>SERVICIOS GENERALES</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Secretar¡a de Rector¡a</t>
-  </si>
-  <si>
-    <t>Segunda Porteria</t>
   </si>
   <si>
     <t xml:space="preserve">Segunda Porteria </t>
@@ -1383,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A180"/>
+  <dimension ref="A1:A179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:XFD178"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1456,12 +1453,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1486,12 +1483,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1516,12 +1513,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -1556,7 +1553,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1596,12 +1593,12 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1611,12 +1608,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -1656,12 +1653,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -1731,7 +1728,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -1746,7 +1743,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -1786,177 +1783,177 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -1966,287 +1963,287 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -2256,7 +2253,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
@@ -2265,23 +2262,23 @@
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -2289,13 +2286,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A5407:A1048576 A1:A180">
+  <conditionalFormatting sqref="A5406:A1048576 A1:A179">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
